--- a/API_Summary.xlsx
+++ b/API_Summary.xlsx
@@ -1,96 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63200271\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Cloud\OneDrive - HH2\Desktop\uongbi-client-ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF3BC2-EF2D-438C-BFA1-7FA62BC20711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCF9F4-18EC-474A-B397-BE8A20D04F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="9">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="6"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="8"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <valueMetadata count="9">
+  <valueMetadata count="7">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -112,18 +103,12 @@
     <bk>
       <rc t="1" v="6"/>
     </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
-    <bk>
-      <rc t="1" v="8"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -224,15 +209,6 @@
     <t>page.tsx:169–181</t>
   </si>
   <si>
-    <t>/api/news/ticker</t>
-  </si>
-  <si>
-    <t>Tin marquee</t>
-  </si>
-  <si>
-    <t>InfoBar.tsx:50</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -245,15 +221,6 @@
     <t>page.tsx, about/page.tsx</t>
   </si>
   <si>
-    <t>/api/organization/structure</t>
-  </si>
-  <si>
-    <t>Cơ cấu tổ chức</t>
-  </si>
-  <si>
-    <t>about/page.tsx</t>
-  </si>
-  <si>
     <t>Procedures</t>
   </si>
   <si>
@@ -299,12 +266,6 @@
     <t>Trung bình</t>
   </si>
   <si>
-    <t>/api/announcements/pinned</t>
-  </si>
-  <si>
-    <t>Thông báo ghim</t>
-  </si>
-  <si>
     <t>/api/announcements/{id}</t>
   </si>
   <si>
@@ -323,36 +284,12 @@
     <t>plannings/page.tsx</t>
   </si>
   <si>
-    <t>/api/plannings/categories</t>
-  </si>
-  <si>
-    <t>Danh mục quy hoạch</t>
-  </si>
-  <si>
     <t>/api/plannings/{id}</t>
   </si>
   <si>
     <t>Chi tiết quy hoạch</t>
   </si>
   <si>
-    <t>Election</t>
-  </si>
-  <si>
-    <t>/api/election-info</t>
-  </si>
-  <si>
-    <t>Thông tin bầu cử</t>
-  </si>
-  <si>
-    <t>election-info/page.tsx</t>
-  </si>
-  <si>
-    <t>/api/election-info/{id}</t>
-  </si>
-  <si>
-    <t>Chi tiết bầu cử</t>
-  </si>
-  <si>
     <t>Documents</t>
   </si>
   <si>
@@ -371,15 +308,6 @@
     <t>Chi tiết văn bản</t>
   </si>
   <si>
-    <t>/api/documents/categories</t>
-  </si>
-  <si>
-    <t>Danh mục văn bản</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
     <t>Configuration</t>
   </si>
   <si>
@@ -495,6 +423,15 @@
   </si>
   <si>
     <t>Phần cho TTHC này có cần gọi API không vì 2 tagert user này thường fix cứng, gọi nhiều tốn tài nguyên =&gt; Để Enum có thể OK hơn</t>
+  </si>
+  <si>
+    <t>Tóm tắt</t>
+  </si>
+  <si>
+    <t>/api/news/summary</t>
+  </si>
+  <si>
+    <t>Tóm tắt nội dung New</t>
   </si>
 </sst>
 </file>
@@ -545,11 +482,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,25 +893,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,11 +934,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1020,11 +957,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -1044,11 +983,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1068,11 +1009,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="124" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1088,755 +1031,624 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="e" vm="3">
+      <c r="H5" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="e" vm="4">
+      <c r="H6" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="e" vm="5">
+      <c r="H11" t="e">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="I11" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
       <c r="G19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
       <c r="G23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
         <v>79</v>
       </c>
-      <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
       <c r="G31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B10"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1849,18 +1661,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="2" width="109.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="e" vm="9">
+    <row r="1" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
